--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18528" windowHeight="7284"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="激光打印机" sheetId="6" r:id="rId1"/>
@@ -353,8 +353,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -398,6 +398,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -406,90 +427,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,9 +466,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,16 +491,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +527,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
@@ -556,6 +556,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -563,11 +568,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -578,19 +578,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,25 +710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,133 +746,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,59 +773,68 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,17 +848,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,17 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -895,35 +902,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,154 +932,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,101 +1087,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1310,7 +1310,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1334,9 +1334,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1360,7 +1360,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1413,7 +1413,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1438,7 +1438,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1453,20 +1453,20 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="10.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="10.2190476190476" customWidth="true"/>
+    <col min="5" max="5" width="9.24761904761905" customWidth="true"/>
+    <col min="7" max="7" width="8.5047619047619" customWidth="true"/>
+    <col min="8" max="8" width="12.247619047619" customWidth="true"/>
+    <col min="14" max="14" width="12.247619047619" customWidth="true"/>
+    <col min="21" max="21" width="14.752380952381" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.55" spans="1:32">
+    <row r="1" ht="41.25" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -1564,16 +1564,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:32">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+    <row r="2" spans="1:32">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-      <c r="AC2" s="4"/>
+      <c r="AC2" s="3"/>
       <c r="AD2" s="14" t="s">
         <v>38</v>
       </c>
@@ -1623,9 +1623,24 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
@@ -1633,12 +1648,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>厂商</t>
   </si>
@@ -320,6 +320,15 @@
     </r>
   </si>
   <si>
+    <t>银河麒麟桌面操作系统V10SP1</t>
+  </si>
+  <si>
+    <t>飞腾</t>
+  </si>
+  <si>
+    <t>arm64</t>
+  </si>
+  <si>
     <t>厂商主动申请</t>
   </si>
   <si>
@@ -353,8 +362,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -405,6 +414,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -413,7 +436,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,6 +466,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -443,16 +535,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,89 +555,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,187 +587,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,15 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -868,6 +868,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,21 +936,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -935,148 +944,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1453,7 +1462,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -1574,61 +1583,70 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="N2" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="Y2" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
       <formula1>"是,否"</formula1>
@@ -1636,14 +1654,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>

--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -360,11 +360,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -435,47 +436,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,61 +491,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -593,37 +594,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,7 +732,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,127 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,15 +849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -896,21 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -928,6 +905,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -944,142 +945,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1092,8 +1093,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1108,7 +1112,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1121,6 +1128,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -1461,189 +1474,193 @@
   <sheetPr/>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="10.2190476190476" customWidth="true"/>
     <col min="5" max="5" width="9.24761904761905" customWidth="true"/>
-    <col min="7" max="7" width="8.5047619047619" customWidth="true"/>
-    <col min="8" max="8" width="12.247619047619" customWidth="true"/>
+    <col min="7" max="7" width="8.5047619047619" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.247619047619" style="1" customWidth="true"/>
     <col min="14" max="14" width="12.247619047619" customWidth="true"/>
     <col min="21" max="21" width="14.752380952381" customWidth="true"/>
+    <col min="27" max="28" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.25" spans="1:32">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="8" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="14" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="18" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
@@ -1651,14 +1668,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
-      <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
       <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>

--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -362,8 +362,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -436,11 +436,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +498,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -468,8 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,79 +552,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,181 +594,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,6 +849,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -868,7 +907,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,45 +927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -945,142 +945,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -1656,17 +1656,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c"</formula1>
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
-      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>

--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="激光打印机" sheetId="6" r:id="rId1"/>
@@ -16,10 +16,58 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>kylin</author>
     <author>周子琦</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>kylin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写完整厂商名称</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>kylin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写外设品牌，规则如下：
+1. 既有中文又有英文：中文(英文)
+2. 只有中文：中文
+3. 只有英文：英文</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -41,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -63,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -85,7 +133,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>kylin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考如下附件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -107,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AG1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -129,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AH1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -156,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>厂商</t>
   </si>
@@ -234,6 +304,12 @@
   </si>
   <si>
     <t>是否互认证</t>
+  </si>
+  <si>
+    <t>是否有测试报告</t>
+  </si>
+  <si>
+    <t>证书编号</t>
   </si>
   <si>
     <t>适配开始时间</t>
@@ -360,12 +436,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -409,16 +484,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,8 +504,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,118 +627,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,16 +643,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -588,43 +663,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,43 +813,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,91 +837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,59 +858,83 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,22 +952,33 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,30 +999,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -926,284 +1012,264 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 3" xfId="49"/>
-    <cellStyle name="链接单元格" xfId="50" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1212,6 +1278,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>16510</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>514350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>540385</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>579120</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4106" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11473180" y="514350"/>
+              <a:ext cx="523875" cy="731520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,7 +1444,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1356,9 +1468,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1382,7 +1494,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1435,7 +1547,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1460,7 +1572,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1472,24 +1584,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="10.2190476190476" customWidth="true"/>
-    <col min="5" max="5" width="9.24761904761905" customWidth="true"/>
-    <col min="7" max="7" width="8.5047619047619" style="1" customWidth="true"/>
-    <col min="8" max="8" width="12.247619047619" style="1" customWidth="true"/>
-    <col min="14" max="14" width="12.247619047619" customWidth="true"/>
-    <col min="21" max="21" width="14.752380952381" customWidth="true"/>
-    <col min="27" max="28" width="9" style="1"/>
+    <col min="3" max="3" width="10.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="8.50833333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" spans="1:32">
+    <row r="1" ht="52.5" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1508,19 +1620,19 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1532,7 +1644,7 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
@@ -1544,19 +1656,19 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1568,118 +1680,160 @@
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="AG1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="10" t="s">
+    <row r="2" ht="46" customHeight="1" spans="1:34">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="18" t="s">
+      <c r="V2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="W2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="X2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="13" t="s">
         <v>43</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
       <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2 AA2 AB2">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
       <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
-      <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="4106" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>16510</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>514350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>540385</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>579120</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="4106" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="激光打印机" sheetId="6" r:id="rId1"/>
@@ -483,6 +483,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -491,6 +506,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -498,9 +520,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,91 +605,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,26 +620,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,13 +663,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,61 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,43 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,49 +819,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,6 +916,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -934,25 +958,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,21 +985,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -998,17 +1004,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,136 +1032,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1772,9 +1772,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
+      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J3:J1048576">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
@@ -1782,26 +1791,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2 AA2 AB2">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+      <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
-      <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/template/p_import.xlsx
+++ b/public/template/p_import.xlsx
@@ -4,11 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="激光打印机" sheetId="6" r:id="rId1"/>
+    <sheet name="外设数据" sheetId="6" r:id="rId1"/>
+    <sheet name="外设分类" sheetId="7" r:id="rId2"/>
+    <sheet name="适配状态" sheetId="8" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="待验证">适配状态!$D$2</definedName>
+    <definedName name="其它外设">外设分类!$E$2</definedName>
+    <definedName name="软硬件一体">外设分类!$D$2:$D$9</definedName>
+    <definedName name="适配暂停">适配状态!$E$2:$E$4</definedName>
+    <definedName name="适配中">适配状态!$B$2:$B$18</definedName>
+    <definedName name="输出设备">外设分类!$A$2:$A$13</definedName>
+    <definedName name="输入设备">外设分类!$B$2:$B$25</definedName>
+    <definedName name="网络设备">外设分类!$C$2</definedName>
+    <definedName name="未适配">适配状态!$A$2:$A$4</definedName>
+    <definedName name="已适配">适配状态!$C$2:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -89,72 +103,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>周子琦:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-与生态网站分类二保持一致</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>周子琦:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-与生态网站分类三保持一致</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>kylin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-参考如下附件</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AF1" authorId="1">
       <text>
         <r>
@@ -226,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>厂商</t>
   </si>
@@ -396,6 +344,12 @@
     </r>
   </si>
   <si>
+    <t>输出设备</t>
+  </si>
+  <si>
+    <t>激光打印机</t>
+  </si>
+  <si>
     <t>银河麒麟桌面操作系统V10SP1</t>
   </si>
   <si>
@@ -411,6 +365,12 @@
     <t>是</t>
   </si>
   <si>
+    <t>已适配</t>
+  </si>
+  <si>
+    <t>麒麟自研适配方案，内部已验证通过</t>
+  </si>
+  <si>
     <t>softname值</t>
   </si>
   <si>
@@ -430,6 +390,261 @@
   </si>
   <si>
     <t>手动双面</t>
+  </si>
+  <si>
+    <t>输入设备</t>
+  </si>
+  <si>
+    <t>网络设备</t>
+  </si>
+  <si>
+    <t>软硬件一体</t>
+  </si>
+  <si>
+    <t>其它外设</t>
+  </si>
+  <si>
+    <t>扫描仪</t>
+  </si>
+  <si>
+    <t>无线网卡</t>
+  </si>
+  <si>
+    <t>UKey</t>
+  </si>
+  <si>
+    <t>移动光驱</t>
+  </si>
+  <si>
+    <t>喷墨打印机</t>
+  </si>
+  <si>
+    <t>触摸屏</t>
+  </si>
+  <si>
+    <t>电子支付密码器</t>
+  </si>
+  <si>
+    <t>智能复合机/多功能一体机</t>
+  </si>
+  <si>
+    <t>扫描枪</t>
+  </si>
+  <si>
+    <t>印控仪</t>
+  </si>
+  <si>
+    <t>针式打印机</t>
+  </si>
+  <si>
+    <t>摄像头</t>
+  </si>
+  <si>
+    <t>密码模块</t>
+  </si>
+  <si>
+    <t>热敏打印机</t>
+  </si>
+  <si>
+    <t>高拍仪</t>
+  </si>
+  <si>
+    <t>指静脉</t>
+  </si>
+  <si>
+    <t>条码/标签打印机</t>
+  </si>
+  <si>
+    <t>读卡器</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>证卡打印机</t>
+  </si>
+  <si>
+    <t>身份证阅读机具</t>
+  </si>
+  <si>
+    <t>录音电话</t>
+  </si>
+  <si>
+    <t>扩展坞</t>
+  </si>
+  <si>
+    <t>指纹设备</t>
+  </si>
+  <si>
+    <t>硬件配套软件</t>
+  </si>
+  <si>
+    <t>发卡机</t>
+  </si>
+  <si>
+    <t>手写板</t>
+  </si>
+  <si>
+    <t>耳机</t>
+  </si>
+  <si>
+    <t>手写屏</t>
+  </si>
+  <si>
+    <t>投影仪</t>
+  </si>
+  <si>
+    <t>虹膜设备</t>
+  </si>
+  <si>
+    <t>传真服务器</t>
+  </si>
+  <si>
+    <t>传真机</t>
+  </si>
+  <si>
+    <t>密码键盘</t>
+  </si>
+  <si>
+    <t>人脸识别摄像头</t>
+  </si>
+  <si>
+    <t>键鼠</t>
+  </si>
+  <si>
+    <t>麦克风音箱</t>
+  </si>
+  <si>
+    <t>柜外清</t>
+  </si>
+  <si>
+    <t>语音模块</t>
+  </si>
+  <si>
+    <t>交互终端</t>
+  </si>
+  <si>
+    <t>掌纹识别仪</t>
+  </si>
+  <si>
+    <t>记录仪</t>
+  </si>
+  <si>
+    <t>纸币清分机</t>
+  </si>
+  <si>
+    <t>未适配</t>
+  </si>
+  <si>
+    <t>适配中</t>
+  </si>
+  <si>
+    <t>待验证</t>
+  </si>
+  <si>
+    <t>适配暂停</t>
+  </si>
+  <si>
+    <t>厂商暂无适配计划</t>
+  </si>
+  <si>
+    <t>云平台资源准备中</t>
+  </si>
+  <si>
+    <t>适配成果已提交上架软件商店</t>
+  </si>
+  <si>
+    <t>麒麟自研适配方案，待内部验证</t>
+  </si>
+  <si>
+    <t>麒麟原因</t>
+  </si>
+  <si>
+    <t>待与厂商沟通</t>
+  </si>
+  <si>
+    <t>适配方案开发中</t>
+  </si>
+  <si>
+    <t>适配成果已上架至软件商店</t>
+  </si>
+  <si>
+    <t>厂商原因</t>
+  </si>
+  <si>
+    <t>与厂商正在沟通</t>
+  </si>
+  <si>
+    <t>厂商安排测试环境中</t>
+  </si>
+  <si>
+    <t>互认证证书制作中</t>
+  </si>
+  <si>
+    <t>其他原因</t>
+  </si>
+  <si>
+    <t>测试相关设备借收货中</t>
+  </si>
+  <si>
+    <t>证书邮寄中（后期）</t>
+  </si>
+  <si>
+    <t>厂商适配申请准备中</t>
+  </si>
+  <si>
+    <t>证书归档中（后期）</t>
+  </si>
+  <si>
+    <t>适配申请生态审核中</t>
+  </si>
+  <si>
+    <t>证书已归档</t>
+  </si>
+  <si>
+    <t>排期待适配测试</t>
+  </si>
+  <si>
+    <t>适配测试中—远程测试</t>
+  </si>
+  <si>
+    <t>适配成果已提交下架软件商店</t>
+  </si>
+  <si>
+    <t>适配测试中—出差测试</t>
+  </si>
+  <si>
+    <t>适配成果已下架软件商店</t>
+  </si>
+  <si>
+    <t>适配测试中—视频复测</t>
+  </si>
+  <si>
+    <t>测试报告已上传至生态网站</t>
+  </si>
+  <si>
+    <t>适配测试中—麒麟内测</t>
+  </si>
+  <si>
+    <t>适配成果数据已更新至生态网站</t>
+  </si>
+  <si>
+    <t>适配问题定位分析中</t>
+  </si>
+  <si>
+    <t>问题修复中—厂商问题</t>
+  </si>
+  <si>
+    <t>问题修复中—系统问题</t>
+  </si>
+  <si>
+    <t>问题修复中—其他问题</t>
+  </si>
+  <si>
+    <t>问题复测中</t>
+  </si>
+  <si>
+    <t>测试报告确认中</t>
   </si>
 </sst>
 </file>
@@ -439,8 +654,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -451,27 +666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -484,45 +681,108 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.349986266670736"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,53 +794,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -589,13 +802,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -606,7 +812,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,7 +827,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,10 +847,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,25 +883,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,37 +1045,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,122 +1067,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -863,7 +1083,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -878,7 +1098,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -890,27 +1110,29 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,21 +1161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -974,17 +1181,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,6 +1208,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1020,10 +1227,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,189 +1239,212 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1498,8 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1278,52 +1508,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>16510</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>514350</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>540385</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>579120</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4106" name="Object 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4106"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11473180" y="514350"/>
-              <a:ext cx="523875" cy="731520"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1586,257 +1770,726 @@
   <sheetPr/>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
-    <col min="3" max="3" width="10.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="8.50833333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="14.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="10.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="12.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8"/>
+    <col min="7" max="7" width="8.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="26.875" style="9" customWidth="1"/>
+    <col min="11" max="13" width="9" style="8"/>
+    <col min="14" max="14" width="12.25" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9" style="8"/>
+    <col min="16" max="16" width="9" style="10"/>
+    <col min="17" max="17" width="16.125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="9" style="8"/>
+    <col min="19" max="19" width="11.25" style="8" customWidth="1"/>
+    <col min="20" max="20" width="9" style="8"/>
+    <col min="21" max="21" width="14.75" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52.5" spans="1:34">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" ht="43.5" spans="1:34">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="46" customHeight="1" spans="1:34">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="9" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="M2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="N2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9" t="s">
+      <c r="O2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="P2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="Q2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="13" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="V2" s="17" t="s">
         <v>45</v>
       </c>
+      <c r="W2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
-      <formula1>"未适配,适配中,已适配,待验证,适配暂停"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+      <formula1>适配状态!$A$1:$E$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 J3:J1048576">
-      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>外设分类!$A$1:$E$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"金融,电信,交通,能源,气象,电力,邮政,医疗,教育,党政,军工,通用"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 Q2:Q1048576">
+      <formula1>INDIRECT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2 O2:O1048576 AA2:AA1048576 X2:Z1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7,银河麒麟服务器操作系统V10SP2,银河麒麟桌面操作系统（金融机具版）V10,银河麒麟桌面操作系统（工控机版）V10,银河麒麟桌面操作系统（教育版）V10,银河麒麟桌面操作系统（大屏版）V10SP1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"飞腾,鲲鹏,兆芯,海光,龙芯MIPS,龙芯LoongArch,申威,AMD,Intel,海思麒麟990,海思麒麟9006c,盘古M900"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"arm64,amd64,mips64el,loongarch64,sw64"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
+      <formula1>"银河麒麟桌面操作系统V10SP1,银河麒麟桌面操作系统V10,银河麒麟桌面操作系统V4,中标麒麟桌面操作系统V7,银河麒麟服务器操作系统V10SP1,银河麒麟服务器操作系统V10,银河麒麟服务器操作系统V4,中标麒麟服务器操作系统V7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 X2:Z2 AA2 AB2">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576">
+      <formula1>"厂商主动申请,BD主动拓展,行业营销中心引入,区域营销中心引入,最终客户反馈,产品经理引入,厂商合作事业本部引入,渠道部引入,相关机构反馈,其他方式引入"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576">
       <formula1>"READY,CERTIFICATION,VALIDATION,PM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"原生适配,自研适配,开源适配,项目适配,KMRE,KWRE,网页"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
       <formula1>"厂商自测,视频复测,远程测试,麒麟适配测试"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="4106" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>16510</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>514350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>540385</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>579120</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="4106" progId="Word.Document.12" r:id="rId4" dvAspect="DVASPECT_ICON"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="F6EA" sheet="1" objects="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="F6EA" sheet="1" objects="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>